--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
   <si>
     <t>index|索引</t>
   </si>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -429,18 +425,6 @@
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sxlgfl_bg_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩回馈--v4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -534,8 +518,148 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>实物奖励二选一</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12,13,14,15,16,17,18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利--v3_cjj</t>
+  </si>
+  <si>
+    <t>限时返利--v4_cjj</t>
+  </si>
+  <si>
+    <t>30,31,32,33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,35,36,37,38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时返利--v3_normal</t>
+  </si>
+  <si>
+    <t>限时返利--v4_normal</t>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,50,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>588888,150,3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,100,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1088888,300,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_3d_fish_doubled"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888,8888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4088888,3888</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金龙鱼油4L","金龙鱼大米2袋"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"美的电饭锅","智能电磁炉"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,"耗牛肉酱",1988</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>"美的多功能锅"</t>
+      <t>1088888,</t>
     </r>
     <r>
       <rPr>
@@ -546,102 +670,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,"美的电烤箱"</t>
+      <t>300,5</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>"金龙鱼油","飞科剃须刀"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励二选一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实物奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>188888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>388888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>588888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>8888888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_lgfl_v4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,12,13,14,15,16,17,18,19,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","swjl_5",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4088888,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2088888,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"琥珀核桃500g"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>2088888,888,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>188888,50,1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>388888,100,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -801,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,16 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -876,6 +917,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,18 +1200,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
@@ -1200,16 +1245,16 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="26">
         <v>1</v>
       </c>
       <c r="F2" s="6"/>
@@ -1219,14 +1264,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>51</v>
+      <c r="B3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="E3" s="25">
         <v>2</v>
@@ -1236,16 +1281,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="35">
+      <c r="B4" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="25">
         <v>3</v>
       </c>
     </row>
@@ -1253,17 +1298,51 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="35">
-        <v>4</v>
+      <c r="E7" s="25">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1275,16 +1354,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
@@ -1320,84 +1399,126 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19" t="s">
-        <v>93</v>
+      <c r="B2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="26" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="24">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24">
+      <c r="B3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
         <v>1</v>
       </c>
       <c r="E3" s="25">
         <v>1</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="23" t="s">
-        <v>127</v>
+      <c r="F3" s="29"/>
+      <c r="G3" s="26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="36" t="s">
-        <v>97</v>
+      <c r="B4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="35">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35">
-        <v>1</v>
-      </c>
-      <c r="E5" s="35">
-        <v>1</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>98</v>
+      <c r="B5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1409,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1422,13 +1543,13 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
@@ -1501,23 +1622,23 @@
       <c r="B2" s="9">
         <v>1000363</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>45</v>
+      <c r="H2" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="L2" s="10"/>
       <c r="N2" s="10"/>
@@ -1533,23 +1654,23 @@
       <c r="B3" s="9">
         <v>1000364</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>45</v>
+      <c r="H3" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1567,23 +1688,23 @@
       <c r="B4" s="9">
         <v>1000365</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="30">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>44</v>
+      <c r="C4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1599,23 +1720,23 @@
       <c r="B5" s="9">
         <v>1000366</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>44</v>
+      <c r="C5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1631,23 +1752,23 @@
       <c r="B6" s="9">
         <v>1000367</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>44</v>
+      <c r="C6" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1663,23 +1784,23 @@
       <c r="B7" s="9">
         <v>1000368</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>44</v>
+      <c r="D7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1696,23 +1817,23 @@
       <c r="B8" s="9">
         <v>1000369</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>44</v>
+      <c r="D8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1722,23 +1843,23 @@
       <c r="B9" s="9">
         <v>1000370</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="30">
-        <v>1</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>44</v>
+      <c r="C9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1748,23 +1869,23 @@
       <c r="B10" s="9">
         <v>1000371</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>44</v>
+      <c r="G10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -1774,23 +1895,23 @@
       <c r="B11" s="9">
         <v>1000372</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="20">
         <v>150</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>44</v>
+      <c r="D11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1801,22 +1922,22 @@
         <v>1000373</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1827,22 +1948,22 @@
         <v>1000374</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1853,22 +1974,22 @@
         <v>1000375</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1879,22 +2000,22 @@
         <v>1000376</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1905,22 +2026,22 @@
         <v>1000377</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1931,22 +2052,22 @@
         <v>1000378</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1957,22 +2078,22 @@
         <v>1000379</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1983,22 +2104,22 @@
         <v>1000380</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2012,19 +2133,19 @@
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -2038,282 +2159,514 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32">
+        <v>1000397</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32">
+        <v>1000398</v>
+      </c>
+      <c r="C23" s="32">
+        <v>3</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="32">
+        <v>1000399</v>
+      </c>
+      <c r="C24" s="32">
+        <v>3</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1000400</v>
+      </c>
+      <c r="C25" s="32">
+        <v>3</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1000401</v>
+      </c>
+      <c r="C26" s="32">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="32">
+        <v>1000402</v>
+      </c>
+      <c r="C27" s="32">
+        <v>3</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="32">
+        <v>1000403</v>
+      </c>
+      <c r="C28" s="32">
+        <v>3</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="N28" s="30"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1000404</v>
+      </c>
+      <c r="C29" s="32">
+        <v>3</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="32">
+        <v>1</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="31">
+        <v>29</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1000405</v>
+      </c>
+      <c r="C30" s="32">
+        <v>3</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="32">
+        <v>1</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="18" t="s">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1000406</v>
+      </c>
+      <c r="C31" s="32">
+        <v>3</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="32">
+        <v>1</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="31">
+        <v>31</v>
+      </c>
+      <c r="B32" s="32">
+        <v>1000407</v>
+      </c>
+      <c r="C32" s="32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="31">
+        <v>32</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1000408</v>
+      </c>
+      <c r="C33" s="32">
+        <v>3</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="31">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32">
+        <v>1000409</v>
+      </c>
+      <c r="C34" s="32">
+        <v>3</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="31">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32">
+        <v>1000410</v>
+      </c>
+      <c r="C35" s="32">
+        <v>3</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="31">
+        <v>35</v>
+      </c>
+      <c r="B36" s="32">
+        <v>1000411</v>
+      </c>
+      <c r="C36" s="32">
+        <v>3</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="31">
+        <v>36</v>
+      </c>
+      <c r="B37" s="32">
+        <v>1000412</v>
+      </c>
+      <c r="C37" s="32">
+        <v>3</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42">
-        <v>1000386</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B38" s="32">
+        <v>1000413</v>
+      </c>
+      <c r="C38" s="32">
         <v>3</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="42">
-        <v>1</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="41">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42">
-        <v>1000387</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="D38" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="31">
+        <v>38</v>
+      </c>
+      <c r="B39" s="32">
+        <v>1000414</v>
+      </c>
+      <c r="C39" s="32">
         <v>3</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="42">
-        <v>1</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="41">
-        <v>23</v>
-      </c>
-      <c r="B24" s="42">
-        <v>1000388</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="42">
-        <v>1</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="41">
-        <v>24</v>
-      </c>
-      <c r="B25" s="42">
-        <v>1000389</v>
-      </c>
-      <c r="C25" s="42">
-        <v>3</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="42">
-        <v>1</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="41">
-        <v>25</v>
-      </c>
-      <c r="B26" s="42">
-        <v>1000390</v>
-      </c>
-      <c r="C26" s="42">
-        <v>3</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="42">
-        <v>1</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="N26" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="41">
-        <v>26</v>
-      </c>
-      <c r="B27" s="42">
-        <v>1000391</v>
-      </c>
-      <c r="C27" s="42">
-        <v>3</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="42">
-        <v>1</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="N27" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="41">
-        <v>27</v>
-      </c>
-      <c r="B28" s="42">
-        <v>1000392</v>
-      </c>
-      <c r="C28" s="42">
-        <v>3</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" s="42">
-        <v>1</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="N28" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="41">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42">
-        <v>1000393</v>
-      </c>
-      <c r="C29" s="42">
-        <v>3</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="42">
-        <v>1</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="41">
-        <v>29</v>
-      </c>
-      <c r="B30" s="42">
-        <v>1000394</v>
-      </c>
-      <c r="C30" s="42">
-        <v>3</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="42">
-        <v>1</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="9"/>
+      <c r="D39" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
   <si>
     <t>index|索引</t>
   </si>
@@ -186,19 +186,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>total|达成条件 
 (任务进度条）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中使用3次超级火力卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"game_MiniGame",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -207,22 +199,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中使用3次双倍奖励卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得150话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -261,21 +237,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀红包鱼累计获得50福利券</t>
-  </si>
-  <si>
-    <t>在西游消消乐中消除1次唐僧</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中累计召唤出2个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在水浒消消乐中累计召唤出4个英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -288,26 +249,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在苹果大战中种出1次金苹果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼深海探险当前层数+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在3D捕鱼深海探险当前层数+5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼海底宝藏以上场次任意击杀3条boss</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中通过击杀红包鱼累计获得150福利券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在西游消消乐中消除1次孙悟空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,30 +269,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在3D捕鱼中通过击杀话费鱼累计获得50话费碎片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_fish_drop_act_0"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5000,5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,59 +285,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>15000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>10000,10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>20000,20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -693,6 +574,110 @@
   <si>
     <t>act_lgfl_normal</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中使用1次双倍奖励卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼深海探险当前层数+2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀红包鱼累计获得100福利券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中通过击杀话费鱼累计获得100话费碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼海底宝藏以上场次任意击杀1条boss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除1次唐僧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中累计召唤出2个英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在苹果大战中种出1次金苹果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1202,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1246,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2" s="26">
         <v>1</v>
@@ -1265,13 +1250,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" s="25">
         <v>2</v>
@@ -1282,13 +1267,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1299,13 +1284,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1316,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1333,13 +1318,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1400,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="28">
         <v>1</v>
@@ -1413,7 +1398,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="26" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1421,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="28">
         <v>1</v>
@@ -1434,7 +1419,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="26" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1442,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
@@ -1455,7 +1440,7 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="26" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1463,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -1476,7 +1461,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1484,7 +1469,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1497,7 +1482,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1505,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -1518,7 +1503,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -1619,26 +1604,26 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>1000363</v>
+      <c r="B2" s="32">
+        <v>1000415</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="10"/>
       <c r="N2" s="10"/>
@@ -1651,26 +1636,26 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
-        <v>1000364</v>
+      <c r="B3" s="32">
+        <v>1000416</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1685,26 +1670,26 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
-        <v>1000365</v>
+      <c r="B4" s="32">
+        <v>1000417</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1717,26 +1702,26 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
-        <v>1000366</v>
+      <c r="B5" s="32">
+        <v>1000418</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1749,26 +1734,26 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>1000367</v>
+      <c r="B6" s="32">
+        <v>1000419</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1781,26 +1766,26 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
-        <v>1000368</v>
+      <c r="B7" s="32">
+        <v>1000420</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1814,368 +1799,368 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
-        <v>1000369</v>
+      <c r="B8" s="32">
+        <v>1000421</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
-        <v>1000370</v>
+      <c r="B9" s="32">
+        <v>1000422</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
-        <v>1000371</v>
+      <c r="B10" s="32">
+        <v>1000423</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
-        <v>1000372</v>
+      <c r="B11" s="32">
+        <v>1000424</v>
       </c>
       <c r="C11" s="20">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
-        <v>1000373</v>
+      <c r="B12" s="32">
+        <v>1000425</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
-        <v>1000374</v>
+      <c r="B13" s="32">
+        <v>1000426</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
-        <v>1000375</v>
+      <c r="B14" s="32">
+        <v>1000427</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
-        <v>1000376</v>
+      <c r="B15" s="32">
+        <v>1000428</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <v>1000377</v>
+      <c r="B16" s="32">
+        <v>1000429</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
-        <v>1000378</v>
+      <c r="B17" s="32">
+        <v>1000430</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
-        <v>1000379</v>
+      <c r="B18" s="32">
+        <v>1000431</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
-        <v>1000380</v>
+      <c r="B19" s="32">
+        <v>1000432</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
-        <v>1000381</v>
+      <c r="B20" s="32">
+        <v>1000433</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>85</v>
-      </c>
       <c r="H20" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
-        <v>1000382</v>
+      <c r="B21" s="32">
+        <v>1000434</v>
       </c>
       <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="14">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="H21" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="31">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="32">
@@ -2185,23 +2170,23 @@
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E22" s="32">
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="31">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="32">
@@ -2211,23 +2196,23 @@
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E23" s="32">
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="31">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="32">
@@ -2237,23 +2222,23 @@
         <v>3</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E24" s="32">
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="31">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="32">
@@ -2263,23 +2248,23 @@
         <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E25" s="32">
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="31">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
       <c r="B26" s="32">
@@ -2289,32 +2274,32 @@
         <v>3</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="31">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="32">
@@ -2324,32 +2309,32 @@
         <v>3</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="31">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="32">
@@ -2359,26 +2344,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="N28" s="30"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="31">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="32">
@@ -2388,25 +2373,25 @@
         <v>3</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E29" s="32">
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K29" s="32"/>
       <c r="L29" s="32"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="31">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="32">
@@ -2416,23 +2401,23 @@
         <v>3</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="31">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="32">
@@ -2442,23 +2427,23 @@
         <v>3</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="31">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="32">
@@ -2468,23 +2453,23 @@
         <v>3</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="31">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="32">
@@ -2494,23 +2479,23 @@
         <v>3</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="31">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="32">
@@ -2520,23 +2505,23 @@
         <v>3</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="31">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="32">
@@ -2546,23 +2531,23 @@
         <v>3</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="31">
+      <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="32">
@@ -2572,23 +2557,23 @@
         <v>3</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="31">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="32">
@@ -2598,23 +2583,23 @@
         <v>3</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="31">
+      <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="32">
@@ -2624,23 +2609,23 @@
         <v>3</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="31">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="32">
@@ -2650,19 +2635,19 @@
         <v>3</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="E39" s="32">
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">

--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
   <si>
     <t>index|索引</t>
   </si>
@@ -677,6 +677,14 @@
   </si>
   <si>
     <t>40000,30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips|提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","请在苹果大战中使用"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1515,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1530,21 +1538,21 @@
     <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.25" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="1"/>
+    <col min="8" max="9" width="28.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1570,37 +1578,40 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1625,14 +1636,15 @@
       <c r="H2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="10"/>
+      <c r="I2" s="23"/>
+      <c r="M2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="12"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1657,16 +1669,17 @@
       <c r="H3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="13"/>
-      <c r="Q3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="13"/>
       <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="1:19" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1691,14 +1704,15 @@
       <c r="H4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="13"/>
-      <c r="Q4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="13"/>
       <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1723,14 +1737,15 @@
       <c r="H5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="13"/>
-      <c r="Q5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="13"/>
       <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1755,14 +1770,15 @@
       <c r="H6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="13"/>
-      <c r="Q6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="13"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1787,15 +1803,16 @@
       <c r="H7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1820,8 +1837,9 @@
       <c r="H8" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1846,8 +1864,9 @@
       <c r="H9" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1872,8 +1891,9 @@
       <c r="H10" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1898,8 +1918,9 @@
       <c r="H11" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1924,8 +1945,9 @@
       <c r="H12" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -1950,8 +1972,9 @@
       <c r="H13" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1976,8 +1999,9 @@
       <c r="H14" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2002,8 +2026,9 @@
       <c r="H15" s="18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2028,8 +2053,9 @@
       <c r="H16" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2054,8 +2080,9 @@
       <c r="H17" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2080,8 +2107,9 @@
       <c r="H18" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2106,8 +2134,9 @@
       <c r="H19" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2132,8 +2161,9 @@
       <c r="H20" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2158,8 +2188,9 @@
       <c r="H21" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2184,8 +2215,9 @@
       <c r="H22" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2210,8 +2242,9 @@
       <c r="H23" s="31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2236,8 +2269,9 @@
       <c r="H24" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2262,8 +2296,9 @@
       <c r="H25" s="31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2288,17 +2323,18 @@
       <c r="H26" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="I26" s="31"/>
+      <c r="L26" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="M26" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="O26" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2323,17 +2359,18 @@
       <c r="H27" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="I27" s="31"/>
+      <c r="L27" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="M27" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="O27" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2358,11 +2395,12 @@
       <c r="H28" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="30"/>
-      <c r="N28" s="30"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K28" s="30"/>
+      <c r="O28" s="30"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2387,10 +2425,11 @@
       <c r="H29" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="32"/>
+      <c r="I29" s="31"/>
       <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M29" s="32"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2415,8 +2454,9 @@
       <c r="H30" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2441,8 +2481,11 @@
       <c r="H31" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I31" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2467,8 +2510,11 @@
       <c r="H32" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2493,8 +2539,11 @@
       <c r="H33" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2519,8 +2568,11 @@
       <c r="H34" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2545,8 +2597,18 @@
       <c r="H35" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35" s="31"/>
+      <c r="L35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -2571,8 +2633,18 @@
       <c r="H36" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I36" s="31"/>
+      <c r="L36" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -2597,8 +2669,9 @@
       <c r="H37" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -2623,8 +2696,11 @@
       <c r="H38" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I38" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -2649,8 +2725,11 @@
       <c r="H39" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G40" s="35"/>
     </row>
   </sheetData>

--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
   <si>
     <t>index|索引</t>
   </si>
@@ -253,14 +253,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在西游消消乐中消除2次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在水浒消消乐中召唤出1个英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -596,10 +588,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在西游消消乐中消除1次孙悟空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在西游消消乐中消除1次唐僧</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -632,14 +620,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>5000,5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -685,6 +665,30 @@
   </si>
   <si>
     <t>"","","请在苹果大战中使用"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除6个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中消除3个孙悟空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1275,13 +1279,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1292,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1309,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1326,13 +1330,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1406,7 +1410,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1427,7 +1431,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1435,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
@@ -1448,7 +1452,7 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -1469,7 +1473,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1477,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1490,7 +1494,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1498,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -1511,7 +1515,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1525,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1619,19 +1623,19 @@
         <v>1000415</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>38</v>
@@ -1655,16 +1659,16 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>38</v>
@@ -1687,7 +1691,7 @@
         <v>1000417</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>48</v>
@@ -1696,10 +1700,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>37</v>
@@ -1720,19 +1724,19 @@
         <v>1000418</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>37</v>
@@ -1753,19 +1757,19 @@
         <v>1000419</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>37</v>
@@ -1786,19 +1790,19 @@
         <v>1000420</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>37</v>
@@ -1820,19 +1824,19 @@
         <v>1000421</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>37</v>
@@ -1847,19 +1851,19 @@
         <v>1000422</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>37</v>
@@ -1874,7 +1878,7 @@
         <v>1000423</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>47</v>
@@ -1883,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>37</v>
@@ -1904,16 +1908,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>37</v>
@@ -1928,19 +1932,19 @@
         <v>1000425</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>56</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>33</v>
@@ -1955,19 +1959,19 @@
         <v>1000426</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -1982,19 +1986,19 @@
         <v>1000427</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2009,19 +2013,19 @@
         <v>1000428</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2039,16 +2043,16 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2063,7 +2067,7 @@
         <v>1000430</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>45</v>
@@ -2072,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2090,19 +2094,19 @@
         <v>1000431</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>34</v>
@@ -2117,7 +2121,7 @@
         <v>1000432</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>46</v>
@@ -2126,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>34</v>
@@ -2153,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>34</v>
@@ -2174,16 +2178,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>34</v>
@@ -2201,19 +2205,19 @@
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="32">
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -2228,19 +2232,19 @@
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="32">
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="31"/>
     </row>
@@ -2255,19 +2259,19 @@
         <v>3</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="32">
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I24" s="31"/>
     </row>
@@ -2282,19 +2286,19 @@
         <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="32">
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="31"/>
     </row>
@@ -2309,29 +2313,29 @@
         <v>3</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I26" s="31"/>
       <c r="L26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O26" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -2345,29 +2349,29 @@
         <v>3</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="31"/>
       <c r="L27" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -2381,19 +2385,19 @@
         <v>3</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="30"/>
@@ -2411,19 +2415,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="32">
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I29" s="31"/>
       <c r="L29" s="32"/>
@@ -2440,19 +2444,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I30" s="31"/>
     </row>
@@ -2467,22 +2471,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2496,22 +2500,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>116</v>
-      </c>
       <c r="H32" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2525,22 +2529,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2554,22 +2558,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2583,29 +2587,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I35" s="31"/>
       <c r="L35" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="O35" s="30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -2619,29 +2623,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36" s="31"/>
       <c r="L36" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -2655,19 +2659,19 @@
         <v>3</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I37" s="31"/>
     </row>
@@ -2682,22 +2686,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2711,22 +2715,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="32">
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
   <si>
     <t>index|索引</t>
   </si>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0","swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"swjl_5",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"耗牛肉酱",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1529,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>109</v>
@@ -2400,8 +2412,14 @@
         <v>78</v>
       </c>
       <c r="I28" s="31"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>149</v>
+      </c>
       <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
@@ -2430,8 +2448,8 @@
         <v>79</v>
       </c>
       <c r="I29" s="31"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="11">
@@ -2674,6 +2692,12 @@
         <v>76</v>
       </c>
       <c r="I37" s="31"/>
+      <c r="L37" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="11">

--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -237,10 +237,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中累计召唤出4个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在龙王争霸中累计赢金60万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -250,10 +246,6 @@
   </si>
   <si>
     <t>在3D捕鱼深海探险当前层数+5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水浒消消乐中召唤出1个英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -596,10 +588,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在水浒消消乐中累计召唤出2个英雄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在苹果大战中种出1次金苹果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -701,6 +689,18 @@
   </si>
   <si>
     <t>"耗牛肉酱",</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出1次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出2次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水浒消消乐中召唤出4次英雄</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1291,13 +1291,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="25">
         <v>3</v>
@@ -1308,13 +1308,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="25">
         <v>4</v>
@@ -1325,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="25">
         <v>5</v>
@@ -1342,13 +1342,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" s="25">
         <v>6</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="28">
         <v>1</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="25">
         <v>1</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1514,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="25">
         <v>1</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1635,19 +1635,19 @@
         <v>1000415</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>38</v>
@@ -1671,16 +1671,16 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>38</v>
@@ -1703,19 +1703,19 @@
         <v>1000417</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>37</v>
@@ -1736,19 +1736,19 @@
         <v>1000418</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="H5" s="23" t="s">
         <v>37</v>
@@ -1769,19 +1769,19 @@
         <v>1000419</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>37</v>
@@ -1802,19 +1802,19 @@
         <v>1000420</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>37</v>
@@ -1836,19 +1836,19 @@
         <v>1000421</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>37</v>
@@ -1863,19 +1863,19 @@
         <v>1000422</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>37</v>
@@ -1890,19 +1890,19 @@
         <v>1000423</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="20">
         <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>37</v>
@@ -1920,16 +1920,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>37</v>
@@ -1944,19 +1944,19 @@
         <v>1000425</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>54</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>33</v>
@@ -1971,19 +1971,19 @@
         <v>1000426</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -1998,19 +1998,19 @@
         <v>1000427</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2025,19 +2025,19 @@
         <v>1000428</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2055,16 +2055,16 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2079,19 +2079,19 @@
         <v>1000430</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2106,19 +2106,19 @@
         <v>1000431</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>34</v>
@@ -2133,19 +2133,19 @@
         <v>1000432</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>34</v>
@@ -2163,16 +2163,16 @@
         <v>31</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>34</v>
@@ -2190,16 +2190,16 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>34</v>
@@ -2217,19 +2217,19 @@
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="32">
         <v>1</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" s="31"/>
     </row>
@@ -2244,19 +2244,19 @@
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="32">
         <v>1</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I23" s="31"/>
     </row>
@@ -2271,19 +2271,19 @@
         <v>3</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="32">
         <v>1</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H24" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="31"/>
     </row>
@@ -2298,19 +2298,19 @@
         <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="32">
         <v>1</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I25" s="31"/>
     </row>
@@ -2325,29 +2325,29 @@
         <v>3</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I26" s="31"/>
       <c r="L26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O26" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
@@ -2361,29 +2361,29 @@
         <v>3</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I27" s="31"/>
       <c r="L27" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O27" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
@@ -2397,28 +2397,28 @@
         <v>3</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" s="32">
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H28" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2433,19 +2433,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="32">
         <v>1</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="31"/>
       <c r="L29" s="9"/>
@@ -2462,19 +2462,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="32">
         <v>1</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I30" s="31"/>
     </row>
@@ -2489,22 +2489,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="32">
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2518,22 +2518,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="32">
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="33" t="s">
-        <v>114</v>
-      </c>
       <c r="H32" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2547,22 +2547,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H33" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2576,22 +2576,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E34" s="32">
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H34" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2605,29 +2605,29 @@
         <v>3</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="32">
         <v>1</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H35" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I35" s="31"/>
       <c r="L35" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="O35" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="M35" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="O35" s="30" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
@@ -2641,29 +2641,29 @@
         <v>3</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E36" s="32">
         <v>1</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I36" s="31"/>
       <c r="L36" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O36" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
@@ -2677,26 +2677,26 @@
         <v>3</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="32">
         <v>1</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2710,22 +2710,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E38" s="32">
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H38" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2739,22 +2739,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="32">
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">

--- a/config_3.16/activity_ty_task_config.xlsx
+++ b/config_3.16/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
   <si>
     <t>index|索引</t>
   </si>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2088888,"耗牛肉酱",1988</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1088888,</t>
     </r>
@@ -701,6 +697,14 @@
   </si>
   <si>
     <t>在水浒消消乐中召唤出4次英雄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"耗牛肉酱"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2088888,1988,"耗牛肉酱"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>85</v>
@@ -1541,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>11</v>
@@ -1638,7 +1642,7 @@
         <v>49</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" s="20">
         <v>1</v>
@@ -1647,7 +1651,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>38</v>
@@ -1671,7 +1675,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="20">
         <v>1</v>
@@ -1703,7 +1707,7 @@
         <v>1000417</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>47</v>
@@ -1715,7 +1719,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="23" t="s">
         <v>37</v>
@@ -1736,10 +1740,10 @@
         <v>1000418</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="20">
         <v>1</v>
@@ -1769,10 +1773,10 @@
         <v>1000419</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="20">
         <v>1</v>
@@ -1805,7 +1809,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="20">
         <v>1</v>
@@ -1814,7 +1818,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>37</v>
@@ -1836,10 +1840,10 @@
         <v>1000421</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="20">
         <v>1</v>
@@ -1848,7 +1852,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="23" t="s">
         <v>37</v>
@@ -1866,7 +1870,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="20">
         <v>1</v>
@@ -1875,7 +1879,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>37</v>
@@ -1890,7 +1894,7 @@
         <v>1000423</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>46</v>
@@ -1902,7 +1906,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>37</v>
@@ -1920,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="20">
         <v>1</v>
@@ -1929,7 +1933,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="23" t="s">
         <v>37</v>
@@ -1944,10 +1948,10 @@
         <v>1000425</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
@@ -1971,10 +1975,10 @@
         <v>1000426</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
@@ -1983,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>34</v>
@@ -1998,10 +2002,10 @@
         <v>1000427</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -2010,7 +2014,7 @@
         <v>69</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>34</v>
@@ -2028,7 +2032,7 @@
         <v>49</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -2037,7 +2041,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>33</v>
@@ -2055,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
@@ -2064,7 +2068,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="18" t="s">
         <v>34</v>
@@ -2082,7 +2086,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
@@ -2091,7 +2095,7 @@
         <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>34</v>
@@ -2190,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
@@ -2403,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="H28" s="31" t="s">
         <v>76</v>
@@ -2415,10 +2419,10 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>146</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -2442,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H29" s="31" t="s">
         <v>77</v>
@@ -2471,7 +2475,7 @@
         <v>100</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H30" s="31" t="s">
         <v>73</v>
@@ -2495,16 +2499,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>110</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>111</v>
       </c>
       <c r="H31" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I31" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
@@ -2524,16 +2528,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
@@ -2553,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>97</v>
@@ -2562,7 +2566,7 @@
         <v>74</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
@@ -2582,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>99</v>
@@ -2591,7 +2595,7 @@
         <v>73</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
@@ -2686,17 +2690,17 @@
         <v>106</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>74</v>
       </c>
       <c r="I37" s="31"/>
       <c r="L37" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="32" t="s">
         <v>145</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
@@ -2716,16 +2720,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
@@ -2745,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" s="31" t="s">
         <v>73</v>
       </c>
       <c r="I39" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
